--- a/Pre2020_Indicators_Final.xlsx
+++ b/Pre2020_Indicators_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\BiodivTargets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6a419a393efc514/Postdoc HIFMB/Biodiversity Policy Targets Project/Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BBED45-DBAF-4FBA-AFAD-0FAECBEDE97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916118A-CC94-4DEF-B0F4-4394477986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="862" activeTab="1" xr2:uid="{5A7DE91D-EE9E-4F92-9E1A-DB016CA54D91}"/>
   </bookViews>
@@ -984,7 +984,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Pre 2020 indicators with a marine focus, categorized into Essential Biodiversity Variable classes, blue are what we consider foundational biodiversity variables and red secondary biodiversity variables.</t>
+      <t xml:space="preserve"> Pre 2020 indicators with a marine focus, categorised into Essential Biodiversity Variable classes, red (genes) &amp; blue (species) are what we consider foundational biodiversity variables and yellow (ecosystems) are considered secondary biodiversity variables.</t>
     </r>
   </si>
 </sst>
@@ -1043,7 +1043,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,6 +1071,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1228,6 +1234,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3578,12 +3593,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
@@ -4678,12 +4693,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
@@ -5750,12 +5765,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="35" t="s">
+      <c r="A157" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="38"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="21" t="s">
@@ -6850,12 +6865,12 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A236" s="35" t="s">
+      <c r="A236" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B236" s="35"/>
-      <c r="C236" s="35"/>
-      <c r="D236" s="35"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="38"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="21" t="s">
@@ -7717,7 +7732,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7735,25 +7750,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -7765,10 +7780,10 @@
       <c r="E2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="35" t="s">
         <v>114</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -7794,7 +7809,7 @@
       <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="33" t="s">
         <v>119</v>
       </c>
@@ -7802,8 +7817,8 @@
       <c r="E3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="19" t="s">
         <v>161</v>
       </c>
@@ -7825,14 +7840,14 @@
       <c r="A4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="19" t="s">
         <v>150</v>
       </c>
@@ -7848,7 +7863,7 @@
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="33" t="s">
         <v>119</v>
       </c>
@@ -7856,8 +7871,8 @@
       <c r="E5" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
         <v>119</v>
       </c>
       <c r="H5" s="19" t="s">
@@ -7883,14 +7898,14 @@
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="19" t="s">
         <v>163</v>
       </c>
@@ -7912,14 +7927,14 @@
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="36" t="s">
         <v>119</v>
       </c>
       <c r="H7" s="19" t="s">
@@ -7941,7 +7956,7 @@
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="33" t="s">
         <v>119</v>
       </c>
@@ -7949,8 +7964,8 @@
       <c r="E8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="19" t="s">
         <v>164</v>
       </c>
@@ -7970,7 +7985,7 @@
       <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="33" t="s">
         <v>119</v>
       </c>
@@ -7978,8 +7993,8 @@
       <c r="E9" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="19" t="s">
         <v>162</v>
       </c>
@@ -8003,14 +8018,14 @@
       <c r="A10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="19" t="s">
         <v>164</v>
       </c>
@@ -8028,7 +8043,7 @@
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="33" t="s">
         <v>119</v>
       </c>
@@ -8036,8 +8051,8 @@
       <c r="E11" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="19" t="s">
         <v>165</v>
       </c>
@@ -8061,7 +8076,7 @@
       <c r="A12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="34" t="s">
         <v>119</v>
       </c>
@@ -8071,8 +8086,8 @@
       <c r="E12" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="19" t="s">
         <v>165</v>
       </c>
@@ -8094,7 +8109,7 @@
       <c r="A13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="34" t="s">
         <v>119</v>
       </c>
@@ -8102,8 +8117,8 @@
       <c r="E13" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="19" t="s">
         <v>163</v>
       </c>
@@ -8127,7 +8142,7 @@
       <c r="A14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="34" t="s">
         <v>119</v>
       </c>
@@ -8135,8 +8150,8 @@
       <c r="E14" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="19" t="s">
         <v>164</v>
       </c>
@@ -8154,7 +8169,7 @@
       <c r="A15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="34" t="s">
         <v>119</v>
       </c>
@@ -8162,8 +8177,8 @@
       <c r="E15" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="19" t="s">
         <v>164</v>
       </c>
@@ -8181,7 +8196,7 @@
       <c r="A16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="34" t="s">
         <v>119</v>
       </c>
@@ -8189,10 +8204,10 @@
       <c r="E16" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="19" t="s">
@@ -8218,7 +8233,7 @@
       <c r="A17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="34" t="s">
         <v>119</v>
       </c>
@@ -8228,8 +8243,8 @@
       <c r="E17" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
         <v>119</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -8253,7 +8268,7 @@
       <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="34" t="s">
         <v>119</v>
       </c>
@@ -8261,8 +8276,8 @@
       <c r="E18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="19" t="s">
         <v>167</v>
       </c>
@@ -8284,14 +8299,14 @@
       <c r="A19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="19" t="s">
         <v>166</v>
       </c>
@@ -8315,14 +8330,14 @@
       <c r="A20" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="19" t="s">
         <v>168</v>
       </c>
@@ -8342,7 +8357,7 @@
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="34" t="s">
         <v>119</v>
       </c>
@@ -8350,10 +8365,10 @@
       <c r="E21" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="19" t="s">
         <v>163</v>
       </c>
@@ -8375,14 +8390,14 @@
       <c r="A22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="19" t="s">
         <v>163</v>
       </c>
@@ -8404,7 +8419,7 @@
       <c r="A23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="34" t="s">
         <v>119</v>
       </c>
@@ -8412,8 +8427,8 @@
       <c r="E23" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="19" t="s">
         <v>165</v>
       </c>
@@ -8437,7 +8452,7 @@
       <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="34" t="s">
         <v>119</v>
       </c>
@@ -8445,8 +8460,8 @@
       <c r="E24" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="19" t="s">
         <v>164</v>
       </c>
@@ -8466,7 +8481,7 @@
       <c r="A25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="34" t="s">
         <v>119</v>
       </c>
@@ -8474,8 +8489,8 @@
       <c r="E25" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="19" t="s">
         <v>162</v>
       </c>
@@ -8497,16 +8512,16 @@
       <c r="A26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="31"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -8528,14 +8543,14 @@
       <c r="A27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="19" t="s">
         <v>169</v>
       </c>
@@ -8555,7 +8570,7 @@
       <c r="A28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="34" t="s">
         <v>119</v>
       </c>
@@ -8563,8 +8578,8 @@
       <c r="E28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="19" t="s">
         <v>169</v>
       </c>
@@ -8584,7 +8599,7 @@
       <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="34" t="s">
         <v>119</v>
       </c>
@@ -8592,8 +8607,8 @@
       <c r="E29" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="19" t="s">
         <v>162</v>
       </c>
@@ -8617,7 +8632,7 @@
       <c r="A30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="34" t="s">
         <v>119</v>
       </c>
@@ -8625,8 +8640,8 @@
       <c r="E30" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="19" t="s">
         <v>163</v>
       </c>
@@ -8648,14 +8663,14 @@
       <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="19" t="s">
         <v>165</v>
       </c>
@@ -8808,13 +8823,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -10090,12 +10105,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -10284,14 +10299,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -10305,7 +10320,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10316,7 +10331,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="15" t="s">
         <v>100</v>
       </c>
@@ -10325,7 +10340,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="15" t="s">
         <v>101</v>
       </c>
@@ -10334,7 +10349,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10345,7 +10360,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="15" t="s">
         <v>100</v>
       </c>
@@ -10355,7 +10370,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="15" t="s">
         <v>101</v>
       </c>
@@ -10395,20 +10410,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -11457,12 +11472,12 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
@@ -12543,12 +12558,12 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="40" t="s">
+      <c r="A155" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="41"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="16" t="s">
@@ -12708,20 +12723,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -13810,12 +13825,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
@@ -14882,12 +14897,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="43" t="s">
+      <c r="A157" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B157" s="43"/>
-      <c r="C157" s="43"/>
-      <c r="D157" s="43"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="16" t="s">
@@ -15669,20 +15684,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -16191,12 +16206,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10800" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -26995,12 +27010,12 @@
       <c r="OYJ1" s="1"/>
     </row>
     <row r="2" spans="1:10800" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -28057,12 +28072,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
@@ -29143,12 +29158,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="43"/>
-      <c r="C156" s="43"/>
-      <c r="D156" s="43"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="16" t="s">
@@ -29342,20 +29357,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
@@ -30436,12 +30451,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
@@ -31508,12 +31523,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="38" t="s">
+      <c r="A157" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
@@ -32594,12 +32609,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A235" s="38" t="s">
+      <c r="A235" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B235" s="38"/>
-      <c r="C235" s="38"/>
-      <c r="D235" s="38"/>
+      <c r="B235" s="41"/>
+      <c r="C235" s="41"/>
+      <c r="D235" s="41"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="20" t="s">
@@ -32797,6 +32812,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D22515C1F468B40BA66F90B21AEAB0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb427cdedcf2dcb3d9aed075ed034362">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98cd154f-d7e6-4322-81ad-7feee3b5f491" xmlns:ns3="5c89fe6a-1296-4b39-9800-139b038b1c5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7df81a491b90866dca133a520603a835" ns2:_="" ns3:_="">
     <xsd:import namespace="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
@@ -33033,15 +33057,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -33054,6 +33069,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53202884-83F3-4201-8F94-F8B3B1E2B616}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{291EFA43-6848-4917-BC33-E007D25C7D64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33072,26 +33095,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53202884-83F3-4201-8F94-F8B3B1E2B616}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F510890-0C47-4B1E-97A5-9DCAB1E9A175}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
+    <ds:schemaRef ds:uri="5c89fe6a-1296-4b39-9800-139b038b1c5b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5c89fe6a-1296-4b39-9800-139b038b1c5b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Pre2020_Indicators_Final.xlsx
+++ b/Pre2020_Indicators_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6a419a393efc514/Postdoc HIFMB/Biodiversity Policy Targets Project/Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916118A-CC94-4DEF-B0F4-4394477986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8916118A-CC94-4DEF-B0F4-4394477986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDB3606-A306-4EBE-87EB-EB619EA31400}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="862" activeTab="1" xr2:uid="{5A7DE91D-EE9E-4F92-9E1A-DB016CA54D91}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="1" xr2:uid="{5A7DE91D-EE9E-4F92-9E1A-DB016CA54D91}"/>
   </bookViews>
   <sheets>
     <sheet name="all_BIP" sheetId="16" r:id="rId1"/>
@@ -984,7 +984,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Pre 2020 indicators with a marine focus, categorised into Essential Biodiversity Variable classes, red (genes) &amp; blue (species) are what we consider foundational biodiversity variables and yellow (ecosystems) are considered secondary biodiversity variables.</t>
+      <t xml:space="preserve"> Pre 2020 indicators with a marine focus, categorised into Essential Biodiversity Variable classes, beige (genes) &amp; blue-grey (species) are what we consider foundational biodiversity variables and orange (ecosystems) are considered secondary biodiversity variables.</t>
     </r>
   </si>
 </sst>
@@ -1064,19 +1064,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,33 +1218,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,6 +1252,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3593,12 +3593,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
@@ -4693,12 +4693,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
@@ -5765,12 +5765,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="38" t="s">
+      <c r="A157" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="21" t="s">
@@ -6865,12 +6865,12 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A236" s="38" t="s">
+      <c r="A236" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B236" s="38"/>
-      <c r="C236" s="38"/>
-      <c r="D236" s="38"/>
+      <c r="B236" s="29"/>
+      <c r="C236" s="29"/>
+      <c r="D236" s="29"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="21" t="s">
@@ -7731,8 +7731,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7750,40 +7750,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -7809,16 +7809,16 @@
       <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="19" t="s">
         <v>161</v>
       </c>
@@ -7840,14 +7840,14 @@
       <c r="A4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="36" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="19" t="s">
         <v>150</v>
       </c>
@@ -7863,16 +7863,16 @@
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49" t="s">
         <v>119</v>
       </c>
       <c r="H5" s="19" t="s">
@@ -7898,14 +7898,14 @@
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="19" t="s">
         <v>163</v>
       </c>
@@ -7927,14 +7927,14 @@
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="36" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="49" t="s">
         <v>119</v>
       </c>
       <c r="H7" s="19" t="s">
@@ -7956,16 +7956,16 @@
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="19" t="s">
         <v>164</v>
       </c>
@@ -7985,16 +7985,16 @@
       <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="19" t="s">
         <v>162</v>
       </c>
@@ -8018,14 +8018,14 @@
       <c r="A10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="36" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="19" t="s">
         <v>164</v>
       </c>
@@ -8043,16 +8043,16 @@
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="19" t="s">
         <v>165</v>
       </c>
@@ -8076,18 +8076,18 @@
       <c r="A12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="19" t="s">
         <v>165</v>
       </c>
@@ -8109,16 +8109,16 @@
       <c r="A13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="19" t="s">
         <v>163</v>
       </c>
@@ -8142,16 +8142,16 @@
       <c r="A14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="19" t="s">
         <v>164</v>
       </c>
@@ -8169,16 +8169,16 @@
       <c r="A15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="19" t="s">
         <v>164</v>
       </c>
@@ -8196,18 +8196,18 @@
       <c r="A16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="50" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="19" t="s">
@@ -8233,18 +8233,18 @@
       <c r="A17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
         <v>119</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -8268,16 +8268,16 @@
       <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="19" t="s">
         <v>167</v>
       </c>
@@ -8299,14 +8299,14 @@
       <c r="A19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="37" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="19" t="s">
         <v>166</v>
       </c>
@@ -8330,14 +8330,14 @@
       <c r="A20" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="37" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="19" t="s">
         <v>168</v>
       </c>
@@ -8357,18 +8357,18 @@
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="19" t="s">
         <v>163</v>
       </c>
@@ -8390,14 +8390,14 @@
       <c r="A22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="37" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="19" t="s">
         <v>163</v>
       </c>
@@ -8419,16 +8419,16 @@
       <c r="A23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="19" t="s">
         <v>165</v>
       </c>
@@ -8452,16 +8452,16 @@
       <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="19" t="s">
         <v>164</v>
       </c>
@@ -8481,16 +8481,16 @@
       <c r="A25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="19" t="s">
         <v>162</v>
       </c>
@@ -8512,16 +8512,16 @@
       <c r="A26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="37" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -8543,14 +8543,14 @@
       <c r="A27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="37" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="19" t="s">
         <v>169</v>
       </c>
@@ -8570,16 +8570,16 @@
       <c r="A28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="19" t="s">
         <v>169</v>
       </c>
@@ -8599,16 +8599,16 @@
       <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="19" t="s">
         <v>162</v>
       </c>
@@ -8632,16 +8632,16 @@
       <c r="A30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="19" t="s">
         <v>163</v>
       </c>
@@ -8663,14 +8663,14 @@
       <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="37" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="37"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="19" t="s">
         <v>165</v>
       </c>
@@ -8823,13 +8823,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -10105,12 +10105,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -10299,14 +10299,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -10320,7 +10320,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10331,7 +10331,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="15" t="s">
         <v>100</v>
       </c>
@@ -10340,7 +10340,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="15" t="s">
         <v>101</v>
       </c>
@@ -10349,7 +10349,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10360,7 +10360,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15" t="s">
         <v>100</v>
       </c>
@@ -10370,7 +10370,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15" t="s">
         <v>101</v>
       </c>
@@ -10410,20 +10410,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -11472,12 +11472,12 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
@@ -12558,12 +12558,12 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="44"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="16" t="s">
@@ -12723,20 +12723,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -13825,12 +13825,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
@@ -14897,12 +14897,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="16" t="s">
@@ -15684,20 +15684,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -16206,12 +16206,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10800" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -27010,12 +27010,12 @@
       <c r="OYJ1" s="1"/>
     </row>
     <row r="2" spans="1:10800" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -28072,12 +28072,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
@@ -29158,12 +29158,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="46"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="16" t="s">
@@ -29357,20 +29357,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
@@ -30451,12 +30451,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
@@ -31523,12 +31523,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="41"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
@@ -32609,12 +32609,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A235" s="41" t="s">
+      <c r="A235" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B235" s="41"/>
-      <c r="C235" s="41"/>
-      <c r="D235" s="41"/>
+      <c r="B235" s="32"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="32"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="20" t="s">
@@ -32821,6 +32821,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5c89fe6a-1296-4b39-9800-139b038b1c5b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98cd154f-d7e6-4322-81ad-7feee3b5f491">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D22515C1F468B40BA66F90B21AEAB0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb427cdedcf2dcb3d9aed075ed034362">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98cd154f-d7e6-4322-81ad-7feee3b5f491" xmlns:ns3="5c89fe6a-1296-4b39-9800-139b038b1c5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7df81a491b90866dca133a520603a835" ns2:_="" ns3:_="">
     <xsd:import namespace="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
@@ -33057,17 +33068,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5c89fe6a-1296-4b39-9800-139b038b1c5b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98cd154f-d7e6-4322-81ad-7feee3b5f491">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53202884-83F3-4201-8F94-F8B3B1E2B616}">
   <ds:schemaRefs>
@@ -33077,6 +33077,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F510890-0C47-4B1E-97A5-9DCAB1E9A175}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
+    <ds:schemaRef ds:uri="5c89fe6a-1296-4b39-9800-139b038b1c5b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{291EFA43-6848-4917-BC33-E007D25C7D64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33093,21 +33110,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F510890-0C47-4B1E-97A5-9DCAB1E9A175}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
-    <ds:schemaRef ds:uri="5c89fe6a-1296-4b39-9800-139b038b1c5b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Pre2020_Indicators_Final.xlsx
+++ b/Pre2020_Indicators_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6a419a393efc514/Postdoc HIFMB/Biodiversity Policy Targets Project/Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8916118A-CC94-4DEF-B0F4-4394477986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDB3606-A306-4EBE-87EB-EB619EA31400}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8916118A-CC94-4DEF-B0F4-4394477986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B0C993A-C4E9-4C24-A9C6-742F0B91ADE8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="1" xr2:uid="{5A7DE91D-EE9E-4F92-9E1A-DB016CA54D91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="862" activeTab="1" xr2:uid="{5A7DE91D-EE9E-4F92-9E1A-DB016CA54D91}"/>
   </bookViews>
   <sheets>
     <sheet name="all_BIP" sheetId="16" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1218,6 +1218,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1253,33 +1280,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3593,12 +3594,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
@@ -4693,12 +4694,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
@@ -5765,12 +5766,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="38"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="21" t="s">
@@ -6865,12 +6866,12 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A236" s="29" t="s">
+      <c r="A236" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="38"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="21" t="s">
@@ -7731,8 +7732,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7750,40 +7751,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="35" t="s">
         <v>114</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -7809,16 +7812,16 @@
       <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="19" t="s">
         <v>161</v>
       </c>
@@ -7840,14 +7843,14 @@
       <c r="A4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="49" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="19" t="s">
         <v>150</v>
       </c>
@@ -7863,16 +7866,16 @@
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
         <v>119</v>
       </c>
       <c r="H5" s="19" t="s">
@@ -7898,14 +7901,14 @@
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="50" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="19" t="s">
         <v>163</v>
       </c>
@@ -7927,14 +7930,14 @@
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>119</v>
       </c>
       <c r="H7" s="19" t="s">
@@ -7956,16 +7959,16 @@
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="19" t="s">
         <v>164</v>
       </c>
@@ -7985,16 +7988,16 @@
       <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="19" t="s">
         <v>162</v>
       </c>
@@ -8018,14 +8021,14 @@
       <c r="A10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="49" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="19" t="s">
         <v>164</v>
       </c>
@@ -8043,16 +8046,16 @@
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="19" t="s">
         <v>165</v>
       </c>
@@ -8076,18 +8079,18 @@
       <c r="A12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="47" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="19" t="s">
         <v>165</v>
       </c>
@@ -8109,16 +8112,16 @@
       <c r="A13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="19" t="s">
         <v>163</v>
       </c>
@@ -8142,16 +8145,16 @@
       <c r="A14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="19" t="s">
         <v>164</v>
       </c>
@@ -8169,16 +8172,16 @@
       <c r="A15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="19" t="s">
         <v>164</v>
       </c>
@@ -8196,18 +8199,18 @@
       <c r="A16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="19" t="s">
@@ -8233,18 +8236,18 @@
       <c r="A17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
         <v>119</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -8268,16 +8271,16 @@
       <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="19" t="s">
         <v>167</v>
       </c>
@@ -8299,14 +8302,14 @@
       <c r="A19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="50" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="19" t="s">
         <v>166</v>
       </c>
@@ -8330,14 +8333,14 @@
       <c r="A20" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="50" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="19" t="s">
         <v>168</v>
       </c>
@@ -8357,18 +8360,18 @@
       <c r="A21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="19" t="s">
         <v>163</v>
       </c>
@@ -8390,14 +8393,14 @@
       <c r="A22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="50" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="19" t="s">
         <v>163</v>
       </c>
@@ -8419,16 +8422,16 @@
       <c r="A23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="19" t="s">
         <v>165</v>
       </c>
@@ -8452,16 +8455,16 @@
       <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="19" t="s">
         <v>164</v>
       </c>
@@ -8481,16 +8484,16 @@
       <c r="A25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="19" t="s">
         <v>162</v>
       </c>
@@ -8512,16 +8515,16 @@
       <c r="A26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="50" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="50"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="19" t="s">
         <v>169</v>
       </c>
@@ -8543,14 +8546,14 @@
       <c r="A27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="50" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="19" t="s">
         <v>169</v>
       </c>
@@ -8570,16 +8573,16 @@
       <c r="A28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="47" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="19" t="s">
         <v>169</v>
       </c>
@@ -8599,16 +8602,16 @@
       <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="19" t="s">
         <v>162</v>
       </c>
@@ -8632,16 +8635,16 @@
       <c r="A30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="47" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="19" t="s">
         <v>163</v>
       </c>
@@ -8663,14 +8666,14 @@
       <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="50" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="19" t="s">
         <v>165</v>
       </c>
@@ -8790,7 +8793,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -8823,13 +8826,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -10105,12 +10108,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -10299,14 +10302,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -10320,7 +10323,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10331,7 +10334,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="15" t="s">
         <v>100</v>
       </c>
@@ -10340,7 +10343,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="15" t="s">
         <v>101</v>
       </c>
@@ -10349,7 +10352,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10360,7 +10363,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="15" t="s">
         <v>100</v>
       </c>
@@ -10370,7 +10373,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="15" t="s">
         <v>101</v>
       </c>
@@ -10410,20 +10413,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -11472,12 +11475,12 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
@@ -12558,12 +12561,12 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="35"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="16" t="s">
@@ -12723,20 +12726,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -13825,12 +13828,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
@@ -14897,12 +14900,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="37" t="s">
+      <c r="A157" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B157" s="37"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="16" t="s">
@@ -15684,20 +15687,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -16206,12 +16209,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10800" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -27010,12 +27013,12 @@
       <c r="OYJ1" s="1"/>
     </row>
     <row r="2" spans="1:10800" x14ac:dyDescent="0.45">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -28072,12 +28075,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
@@ -29158,12 +29161,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156" s="37" t="s">
+      <c r="A156" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="37"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="16" t="s">
@@ -29357,20 +29360,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
@@ -30451,12 +30454,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
@@ -31523,12 +31526,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="20" t="s">
@@ -32609,12 +32612,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A235" s="32" t="s">
+      <c r="A235" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B235" s="32"/>
-      <c r="C235" s="32"/>
-      <c r="D235" s="32"/>
+      <c r="B235" s="41"/>
+      <c r="C235" s="41"/>
+      <c r="D235" s="41"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="20" t="s">
@@ -32812,15 +32815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5c89fe6a-1296-4b39-9800-139b038b1c5b" xsi:nil="true"/>
@@ -32829,6 +32823,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33069,26 +33072,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53202884-83F3-4201-8F94-F8B3B1E2B616}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F510890-0C47-4B1E-97A5-9DCAB1E9A175}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
+    <ds:schemaRef ds:uri="5c89fe6a-1296-4b39-9800-139b038b1c5b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F510890-0C47-4B1E-97A5-9DCAB1E9A175}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53202884-83F3-4201-8F94-F8B3B1E2B616}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="98cd154f-d7e6-4322-81ad-7feee3b5f491"/>
-    <ds:schemaRef ds:uri="5c89fe6a-1296-4b39-9800-139b038b1c5b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
